--- a/data/processed/erm_hd_clean.xlsx
+++ b/data/processed/erm_hd_clean.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M644"/>
+  <dimension ref="A1:M640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,13 +897,13 @@
         <v>2.6</v>
       </c>
       <c r="I12">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J12">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K12">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L12">
         <v>7940</v>
@@ -1193,10 +1193,10 @@
         <v>32.7</v>
       </c>
       <c r="L19">
-        <v>11865</v>
+        <v>11851</v>
       </c>
       <c r="M19">
-        <v>344386</v>
+        <v>344030</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2824,13 +2824,13 @@
         <v>3.1</v>
       </c>
       <c r="I59">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J59">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K59">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L59">
         <v>9230</v>
@@ -2906,13 +2906,13 @@
         <v>2.943181818181818</v>
       </c>
       <c r="I61">
-        <v>77.49942532054985</v>
+        <v>77.50410604120592</v>
       </c>
       <c r="J61">
-        <v>25.06566651264873</v>
+        <v>25.06793446630195</v>
       </c>
       <c r="K61">
-        <v>32.34735762966385</v>
+        <v>32.34827435688511</v>
       </c>
       <c r="L61">
         <v>8589</v>
@@ -4095,13 +4095,13 @@
         <v>3.515</v>
       </c>
       <c r="I90">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J90">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K90">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L90">
         <v>8610</v>
@@ -4177,13 +4177,13 @@
         <v>3.360454545454546</v>
       </c>
       <c r="I92">
-        <v>91.34260713873165</v>
+        <v>91.34728785938773</v>
       </c>
       <c r="J92">
-        <v>30.34975742173964</v>
+        <v>30.35202537539285</v>
       </c>
       <c r="K92">
-        <v>33.2178121751184</v>
+        <v>33.21872890233966</v>
       </c>
       <c r="L92">
         <v>7544</v>
@@ -8400,13 +8400,13 @@
         <v>2.135</v>
       </c>
       <c r="I195">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J195">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K195">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L195">
         <v>9225</v>
@@ -9794,13 +9794,13 @@
         <v>2</v>
       </c>
       <c r="I229">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J229">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K229">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L229">
         <v>9070</v>
@@ -11024,13 +11024,13 @@
         <v>3.08</v>
       </c>
       <c r="I259">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J259">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K259">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L259">
         <v>5080</v>
@@ -12828,13 +12828,13 @@
         <v>2.4</v>
       </c>
       <c r="I303">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J303">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K303">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L303">
         <v>8000</v>
@@ -13042,10 +13042,10 @@
         <v>33.6</v>
       </c>
       <c r="L308">
-        <v>10032</v>
+        <v>10011</v>
       </c>
       <c r="M308">
-        <v>185579</v>
+        <v>185046</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -13074,13 +13074,13 @@
         <v>2.4</v>
       </c>
       <c r="I309">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J309">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K309">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L309">
         <v>8320</v>
@@ -13566,13 +13566,13 @@
         <v>2.68</v>
       </c>
       <c r="I321">
-        <v>86.75933926302415</v>
+        <v>86.78508322663252</v>
       </c>
       <c r="J321">
-        <v>28.94866581956798</v>
+        <v>28.96113956466069</v>
       </c>
       <c r="K321">
-        <v>33.34796696315121</v>
+        <v>33.35300896286812</v>
       </c>
       <c r="L321">
         <v>9300</v>
@@ -14058,13 +14058,13 @@
         <v>2.4</v>
       </c>
       <c r="I333">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J333">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K333">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L333">
         <v>6800</v>
@@ -14550,13 +14550,13 @@
         <v>3.3</v>
       </c>
       <c r="I345">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J345">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K345">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L345">
         <v>9400</v>
@@ -15493,19 +15493,19 @@
         <v>2.3</v>
       </c>
       <c r="I368">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J368">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K368">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L368">
-        <v>8425</v>
+        <v>8382</v>
       </c>
       <c r="M368">
-        <v>226158</v>
+        <v>225091</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -15985,13 +15985,13 @@
         <v>2.233333333333333</v>
       </c>
       <c r="I380">
-        <v>88.93955950868276</v>
+        <v>88.95672215108834</v>
       </c>
       <c r="J380">
-        <v>30.23244387971198</v>
+        <v>30.24075970977379</v>
       </c>
       <c r="K380">
-        <v>34.06531130876747</v>
+        <v>34.06867264191208</v>
       </c>
       <c r="L380">
         <v>10657</v>
@@ -16026,13 +16026,13 @@
         <v>2.368181818181818</v>
       </c>
       <c r="I381">
-        <v>91.12329328866814</v>
+        <v>91.12485352888683</v>
       </c>
       <c r="J381">
-        <v>30.9741615648223</v>
+        <v>30.97491754937338</v>
       </c>
       <c r="K381">
-        <v>33.93624042200916</v>
+        <v>33.93654599774958</v>
       </c>
       <c r="L381">
         <v>10748</v>
@@ -16477,13 +16477,13 @@
         <v>2.6</v>
       </c>
       <c r="I392">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J392">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K392">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L392">
         <v>7300</v>
@@ -16969,13 +16969,13 @@
         <v>2.8</v>
       </c>
       <c r="I404">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J404">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K404">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L404">
         <v>9570</v>
@@ -17174,13 +17174,13 @@
         <v>2.25</v>
       </c>
       <c r="I409">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J409">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K409">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L409">
         <v>8890</v>
@@ -17461,13 +17461,13 @@
         <v>2.7</v>
       </c>
       <c r="I416">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J416">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K416">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L416">
         <v>9990</v>
@@ -17748,13 +17748,13 @@
         <v>2.8</v>
       </c>
       <c r="I423">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J423">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K423">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L423">
         <v>5910</v>
@@ -18240,13 +18240,13 @@
         <v>2.4</v>
       </c>
       <c r="I435">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J435">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K435">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L435">
         <v>6230</v>
@@ -18732,13 +18732,13 @@
         <v>3.2</v>
       </c>
       <c r="I447">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J447">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K447">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L447">
         <v>9830</v>
@@ -18855,13 +18855,13 @@
         <v>2.5</v>
       </c>
       <c r="I450">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J450">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K450">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L450">
         <v>4350</v>
@@ -18937,13 +18937,13 @@
         <v>2.38</v>
       </c>
       <c r="I452">
-        <v>87.24373570520966</v>
+        <v>87.254033290653</v>
       </c>
       <c r="J452">
-        <v>29.63946632782719</v>
+        <v>29.64445582586428</v>
       </c>
       <c r="K452">
-        <v>33.97918678526048</v>
+        <v>33.98120358514725</v>
       </c>
       <c r="L452">
         <v>7338</v>
@@ -19347,13 +19347,13 @@
         <v>2.6</v>
       </c>
       <c r="I462">
-        <v>87.6186785260483</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J462">
-        <v>29.09733163913596</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K462">
-        <v>33.19593392630242</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L462">
         <v>6780</v>
@@ -19429,13 +19429,13 @@
         <v>2.463636363636364</v>
       </c>
       <c r="I464">
-        <v>88.15624350236803</v>
+        <v>88.1609242230241</v>
       </c>
       <c r="J464">
-        <v>28.91793923992145</v>
+        <v>28.92020719357467</v>
       </c>
       <c r="K464">
-        <v>32.80872126602749</v>
+        <v>32.80963799324875</v>
       </c>
       <c r="L464">
         <v>8242</v>
@@ -19839,13 +19839,13 @@
         <v>2.433333333333333</v>
       </c>
       <c r="I474">
-        <v>88.21245235069887</v>
+        <v>88.24677763551001</v>
       </c>
       <c r="J474">
-        <v>29.79822109275731</v>
+        <v>29.81485275288092</v>
       </c>
       <c r="K474">
-        <v>33.79728928420161</v>
+        <v>33.80401195049082</v>
       </c>
       <c r="L474">
         <v>5400</v>
@@ -19880,13 +19880,13 @@
         <v>2.526666666666666</v>
       </c>
       <c r="I475">
-        <v>90.18249047013977</v>
+        <v>90.18935552710199</v>
       </c>
       <c r="J475">
-        <v>30.79964421855146</v>
+        <v>30.80297055057618</v>
       </c>
       <c r="K475">
-        <v>34.21945785684032</v>
+        <v>34.22080239009816</v>
       </c>
       <c r="L475">
         <v>5684</v>
@@ -21414,13 +21414,13 @@
     </row>
     <row r="513" spans="1:13">
       <c r="A513">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B513" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="C513">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -21429,39 +21429,39 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>9</v>
+        <v>7.15</v>
       </c>
       <c r="G513">
-        <v>28.9</v>
+        <v>21.3</v>
       </c>
       <c r="H513">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="I513">
-        <v>82.5</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J513">
-        <v>25.8</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K513">
-        <v>31.1</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L513">
-        <v>11740</v>
+        <v>7560</v>
       </c>
       <c r="M513">
-        <v>257000</v>
+        <v>265000</v>
       </c>
     </row>
     <row r="514" spans="1:13">
       <c r="A514">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B514" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="C514">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -21470,39 +21470,39 @@
         <v>0</v>
       </c>
       <c r="F514">
-        <v>8.208333333333334</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G514">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="H514">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I514">
-        <v>81.35833333333333</v>
+        <v>92.7</v>
       </c>
       <c r="J514">
-        <v>25.75</v>
+        <v>31.2</v>
       </c>
       <c r="K514">
-        <v>31.56666666666667</v>
+        <v>33.7</v>
       </c>
       <c r="L514">
-        <v>14143</v>
+        <v>7810</v>
       </c>
       <c r="M514">
-        <v>416000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="515" spans="1:13">
       <c r="A515">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B515" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="C515">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -21511,39 +21511,39 @@
         <v>0</v>
       </c>
       <c r="F515">
-        <v>8.024999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G515">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
       <c r="H515">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I515">
-        <v>80.47500000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J515">
-        <v>25.95</v>
+        <v>31.2</v>
       </c>
       <c r="K515">
-        <v>32.2</v>
+        <v>34</v>
       </c>
       <c r="L515">
-        <v>14228</v>
+        <v>7750</v>
       </c>
       <c r="M515">
-        <v>327000</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="516" spans="1:13">
       <c r="A516">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B516" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="C516">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -21552,28 +21552,28 @@
         <v>0</v>
       </c>
       <c r="F516">
-        <v>7.6</v>
+        <v>7.45</v>
       </c>
       <c r="G516">
-        <v>24.2</v>
+        <v>21.55</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="I516">
-        <v>81.09999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="J516">
-        <v>25.5</v>
+        <v>31.75</v>
       </c>
       <c r="K516">
-        <v>31.4</v>
+        <v>34.6</v>
       </c>
       <c r="L516">
-        <v>16460</v>
+        <v>6840</v>
       </c>
       <c r="M516">
-        <v>664000</v>
+        <v>247000</v>
       </c>
     </row>
     <row r="517" spans="1:13">
@@ -21581,7 +21581,7 @@
         <v>56</v>
       </c>
       <c r="B517" s="2">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="C517">
         <v>59</v>
@@ -21593,28 +21593,28 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>7.15</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="G517">
-        <v>21.3</v>
+        <v>25.8</v>
       </c>
       <c r="H517">
-        <v>2.3</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="I517">
-        <v>87.6186785260483</v>
+        <v>91.7</v>
       </c>
       <c r="J517">
-        <v>29.09733163913596</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="K517">
-        <v>33.19593392630242</v>
+        <v>33.6</v>
       </c>
       <c r="L517">
-        <v>7560</v>
+        <v>8050</v>
       </c>
       <c r="M517">
-        <v>265000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="518" spans="1:13">
@@ -21622,7 +21622,7 @@
         <v>56</v>
       </c>
       <c r="B518" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C518">
         <v>59</v>
@@ -21637,189 +21637,189 @@
         <v>9.300000000000001</v>
       </c>
       <c r="G518">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="H518">
         <v>3</v>
       </c>
       <c r="I518">
-        <v>92.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J518">
-        <v>31.2</v>
+        <v>30.7</v>
       </c>
       <c r="K518">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="L518">
-        <v>7810</v>
+        <v>9470</v>
       </c>
       <c r="M518">
-        <v>251000</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="519" spans="1:13">
       <c r="A519">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B519" s="2">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="C519">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E519">
         <v>0</v>
       </c>
       <c r="F519">
-        <v>8.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G519">
-        <v>25.6</v>
+        <v>31</v>
       </c>
       <c r="H519">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I519">
-        <v>91.40000000000001</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J519">
-        <v>31.2</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K519">
-        <v>34</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L519">
-        <v>7750</v>
+        <v>4295</v>
       </c>
       <c r="M519">
-        <v>239000</v>
+        <v>180500</v>
       </c>
     </row>
     <row r="520" spans="1:13">
       <c r="A520">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B520" s="2">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="C520">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520">
         <v>0</v>
       </c>
       <c r="F520">
-        <v>7.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G520">
-        <v>21.55</v>
+        <v>26.3</v>
       </c>
       <c r="H520">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="I520">
-        <v>91.84999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="J520">
-        <v>31.75</v>
+        <v>31.6</v>
       </c>
       <c r="K520">
-        <v>34.6</v>
+        <v>33.5</v>
       </c>
       <c r="L520">
-        <v>6840</v>
+        <v>4600</v>
       </c>
       <c r="M520">
-        <v>247000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="521" spans="1:13">
       <c r="A521">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B521" s="2">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="C521">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521">
         <v>0</v>
       </c>
       <c r="F521">
-        <v>8.666666666666666</v>
+        <v>8.9</v>
       </c>
       <c r="G521">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="H521">
-        <v>2.833333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="I521">
-        <v>91.7</v>
+        <v>94.2</v>
       </c>
       <c r="J521">
-        <v>30.83333333333333</v>
+        <v>31.1</v>
       </c>
       <c r="K521">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="L521">
-        <v>8050</v>
+        <v>4060</v>
       </c>
       <c r="M521">
-        <v>236000</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="522" spans="1:13">
       <c r="A522">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B522" s="2">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="C522">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522">
         <v>0</v>
       </c>
       <c r="F522">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G522">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="H522">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I522">
-        <v>90.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J522">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="K522">
-        <v>33.8</v>
+        <v>32.8</v>
       </c>
       <c r="L522">
-        <v>9470</v>
+        <v>4000</v>
       </c>
       <c r="M522">
-        <v>226000</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="523" spans="1:13">
@@ -21827,10 +21827,10 @@
         <v>57</v>
       </c>
       <c r="B523" s="2">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="C523">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -21839,28 +21839,28 @@
         <v>0</v>
       </c>
       <c r="F523">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="G523">
-        <v>31</v>
+        <v>32.65</v>
       </c>
       <c r="H523">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I523">
-        <v>87.6186785260483</v>
+        <v>95.05</v>
       </c>
       <c r="J523">
-        <v>29.09733163913596</v>
+        <v>31.45</v>
       </c>
       <c r="K523">
-        <v>33.19593392630242</v>
+        <v>33.15</v>
       </c>
       <c r="L523">
-        <v>4295</v>
+        <v>4630</v>
       </c>
       <c r="M523">
-        <v>180500</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="524" spans="1:13">
@@ -21868,10 +21868,10 @@
         <v>57</v>
       </c>
       <c r="B524" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C524">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -21880,28 +21880,28 @@
         <v>0</v>
       </c>
       <c r="F524">
-        <v>8.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="G524">
-        <v>26.3</v>
+        <v>29.8</v>
       </c>
       <c r="H524">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I524">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="J524">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="K524">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="L524">
-        <v>4600</v>
+        <v>4440</v>
       </c>
       <c r="M524">
-        <v>167000</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="525" spans="1:13">
@@ -21909,10 +21909,10 @@
         <v>57</v>
       </c>
       <c r="B525" s="2">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C525">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -21921,28 +21921,28 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="G525">
-        <v>27</v>
+        <v>28.8</v>
       </c>
       <c r="H525">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I525">
-        <v>94.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="J525">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="K525">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="L525">
-        <v>4060</v>
+        <v>4000</v>
       </c>
       <c r="M525">
-        <v>148000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -21950,10 +21950,10 @@
         <v>57</v>
       </c>
       <c r="B526" s="2">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="C526">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -21962,25 +21962,25 @@
         <v>0</v>
       </c>
       <c r="F526">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G526">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="H526">
         <v>3.1</v>
       </c>
       <c r="I526">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="J526">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="K526">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="L526">
-        <v>4000</v>
+        <v>4270</v>
       </c>
       <c r="M526">
         <v>164000</v>
@@ -21991,7 +21991,7 @@
         <v>57</v>
       </c>
       <c r="B527" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C527">
         <v>50</v>
@@ -22003,28 +22003,28 @@
         <v>0</v>
       </c>
       <c r="F527">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="G527">
-        <v>32.65</v>
+        <v>31</v>
       </c>
       <c r="H527">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I527">
-        <v>95.05</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J527">
-        <v>31.45</v>
+        <v>31.3</v>
       </c>
       <c r="K527">
-        <v>33.15</v>
+        <v>32.6</v>
       </c>
       <c r="L527">
-        <v>4630</v>
+        <v>3870</v>
       </c>
       <c r="M527">
-        <v>156500</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="528" spans="1:13">
@@ -22032,7 +22032,7 @@
         <v>57</v>
       </c>
       <c r="B528" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C528">
         <v>50</v>
@@ -22044,28 +22044,28 @@
         <v>0</v>
       </c>
       <c r="F528">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G528">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="H528">
         <v>3.1</v>
       </c>
       <c r="I528">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="J528">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="K528">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="L528">
-        <v>4440</v>
+        <v>4110</v>
       </c>
       <c r="M528">
-        <v>186000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -22073,7 +22073,7 @@
         <v>57</v>
       </c>
       <c r="B529" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C529">
         <v>50</v>
@@ -22085,28 +22085,28 @@
         <v>0</v>
       </c>
       <c r="F529">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="G529">
-        <v>28.8</v>
+        <v>31.3</v>
       </c>
       <c r="H529">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I529">
-        <v>95.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="J529">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="K529">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="L529">
-        <v>4000</v>
+        <v>5910</v>
       </c>
       <c r="M529">
-        <v>146000</v>
+        <v>185000</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -22114,7 +22114,7 @@
         <v>57</v>
       </c>
       <c r="B530" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C530">
         <v>50</v>
@@ -22126,39 +22126,39 @@
         <v>0</v>
       </c>
       <c r="F530">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G530">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
       <c r="H530">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I530">
-        <v>95.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J530">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="K530">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="L530">
-        <v>4270</v>
+        <v>4210</v>
       </c>
       <c r="M530">
-        <v>164000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="531" spans="1:13">
       <c r="A531">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B531" s="2">
-        <v>45931</v>
+        <v>45689</v>
       </c>
       <c r="C531">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -22167,39 +22167,39 @@
         <v>0</v>
       </c>
       <c r="F531">
-        <v>10.1</v>
+        <v>8.733333333333333</v>
       </c>
       <c r="G531">
-        <v>31</v>
+        <v>26.23333333333333</v>
       </c>
       <c r="H531">
-        <v>3.2</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="I531">
-        <v>95.59999999999999</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J531">
-        <v>31.3</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K531">
-        <v>32.6</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L531">
-        <v>3870</v>
+        <v>7840</v>
       </c>
       <c r="M531">
-        <v>163000</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="532" spans="1:13">
       <c r="A532">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B532" s="2">
-        <v>45962</v>
+        <v>45717</v>
       </c>
       <c r="C532">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -22208,39 +22208,39 @@
         <v>0</v>
       </c>
       <c r="F532">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G532">
-        <v>29.7</v>
+        <v>25.1</v>
       </c>
       <c r="H532">
         <v>3.1</v>
       </c>
       <c r="I532">
-        <v>94.7</v>
+        <v>81.8</v>
       </c>
       <c r="J532">
-        <v>30.8</v>
+        <v>28</v>
       </c>
       <c r="K532">
-        <v>32.7</v>
+        <v>34.3</v>
       </c>
       <c r="L532">
-        <v>4110</v>
+        <v>8960</v>
       </c>
       <c r="M532">
-        <v>171000</v>
+        <v>114000</v>
       </c>
     </row>
     <row r="533" spans="1:13">
       <c r="A533">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B533" s="2">
-        <v>45992</v>
+        <v>45748</v>
       </c>
       <c r="C533">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -22249,39 +22249,39 @@
         <v>0</v>
       </c>
       <c r="F533">
-        <v>10.3</v>
+        <v>8.65</v>
       </c>
       <c r="G533">
-        <v>31.3</v>
+        <v>25.65</v>
       </c>
       <c r="H533">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I533">
-        <v>94.59999999999999</v>
+        <v>80.95</v>
       </c>
       <c r="J533">
-        <v>31.1</v>
+        <v>27.15</v>
       </c>
       <c r="K533">
-        <v>32.9</v>
+        <v>33.75</v>
       </c>
       <c r="L533">
-        <v>5910</v>
+        <v>6910</v>
       </c>
       <c r="M533">
-        <v>185000</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="534" spans="1:13">
       <c r="A534">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B534" s="2">
-        <v>46023</v>
+        <v>45778</v>
       </c>
       <c r="C534">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -22290,28 +22290,28 @@
         <v>0</v>
       </c>
       <c r="F534">
-        <v>10.2</v>
+        <v>7.85</v>
       </c>
       <c r="G534">
-        <v>31.1</v>
+        <v>23.3</v>
       </c>
       <c r="H534">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I534">
-        <v>94.09999999999999</v>
+        <v>80.44999999999999</v>
       </c>
       <c r="J534">
-        <v>30.9</v>
+        <v>27.15</v>
       </c>
       <c r="K534">
-        <v>32.8</v>
+        <v>33.65</v>
       </c>
       <c r="L534">
-        <v>4210</v>
+        <v>8350</v>
       </c>
       <c r="M534">
-        <v>175000</v>
+        <v>116500</v>
       </c>
     </row>
     <row r="535" spans="1:13">
@@ -22319,7 +22319,7 @@
         <v>58</v>
       </c>
       <c r="B535" s="2">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="C535">
         <v>60</v>
@@ -22331,28 +22331,28 @@
         <v>0</v>
       </c>
       <c r="F535">
-        <v>8.733333333333333</v>
+        <v>7.8</v>
       </c>
       <c r="G535">
-        <v>26.23333333333333</v>
+        <v>23.2</v>
       </c>
       <c r="H535">
-        <v>3.133333333333333</v>
+        <v>2.9</v>
       </c>
       <c r="I535">
-        <v>87.6186785260483</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J535">
-        <v>29.09733163913596</v>
+        <v>27.15</v>
       </c>
       <c r="K535">
-        <v>33.19593392630242</v>
+        <v>33.65</v>
       </c>
       <c r="L535">
-        <v>7840</v>
+        <v>7390</v>
       </c>
       <c r="M535">
-        <v>128000</v>
+        <v>143500</v>
       </c>
     </row>
     <row r="536" spans="1:13">
@@ -22360,7 +22360,7 @@
         <v>58</v>
       </c>
       <c r="B536" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C536">
         <v>60</v>
@@ -22372,367 +22372,367 @@
         <v>0</v>
       </c>
       <c r="F536">
-        <v>8.6</v>
+        <v>6.233333333333333</v>
       </c>
       <c r="G536">
-        <v>25.1</v>
+        <v>18.2</v>
       </c>
       <c r="H536">
-        <v>3.1</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="I536">
-        <v>81.8</v>
+        <v>81.13333333333334</v>
       </c>
       <c r="J536">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="K536">
         <v>34.3</v>
       </c>
       <c r="L536">
-        <v>8960</v>
+        <v>6580</v>
       </c>
       <c r="M536">
-        <v>114000</v>
+        <v>153667</v>
       </c>
     </row>
     <row r="537" spans="1:13">
       <c r="A537">
+        <v>59</v>
+      </c>
+      <c r="B537" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C537">
         <v>58</v>
       </c>
-      <c r="B537" s="2">
-        <v>45748</v>
-      </c>
-      <c r="C537">
-        <v>60</v>
-      </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537">
         <v>0</v>
       </c>
       <c r="F537">
-        <v>8.65</v>
+        <v>5.95</v>
       </c>
       <c r="G537">
-        <v>25.65</v>
+        <v>18</v>
       </c>
       <c r="H537">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="I537">
-        <v>80.95</v>
+        <v>72.55000000000001</v>
       </c>
       <c r="J537">
-        <v>27.15</v>
+        <v>23.8</v>
       </c>
       <c r="K537">
-        <v>33.75</v>
+        <v>33.05</v>
       </c>
       <c r="L537">
-        <v>6910</v>
+        <v>5390</v>
       </c>
       <c r="M537">
-        <v>116000</v>
+        <v>191500</v>
       </c>
     </row>
     <row r="538" spans="1:13">
       <c r="A538">
+        <v>59</v>
+      </c>
+      <c r="B538" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C538">
         <v>58</v>
       </c>
-      <c r="B538" s="2">
-        <v>45778</v>
-      </c>
-      <c r="C538">
-        <v>60</v>
-      </c>
       <c r="D538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E538">
         <v>0</v>
       </c>
       <c r="F538">
-        <v>7.85</v>
+        <v>8.75</v>
       </c>
       <c r="G538">
-        <v>23.3</v>
+        <v>26.35</v>
       </c>
       <c r="H538">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I538">
-        <v>80.44999999999999</v>
+        <v>76.45</v>
       </c>
       <c r="J538">
-        <v>27.15</v>
+        <v>25.15</v>
       </c>
       <c r="K538">
-        <v>33.65</v>
+        <v>33</v>
       </c>
       <c r="L538">
-        <v>8350</v>
+        <v>7385</v>
       </c>
       <c r="M538">
-        <v>116500</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="539" spans="1:13">
       <c r="A539">
+        <v>59</v>
+      </c>
+      <c r="B539" s="2">
+        <v>45778</v>
+      </c>
+      <c r="C539">
         <v>58</v>
       </c>
-      <c r="B539" s="2">
-        <v>45809</v>
-      </c>
-      <c r="C539">
-        <v>60</v>
-      </c>
       <c r="D539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E539">
         <v>0</v>
       </c>
       <c r="F539">
-        <v>7.8</v>
+        <v>7.15</v>
       </c>
       <c r="G539">
-        <v>23.2</v>
+        <v>21.75</v>
       </c>
       <c r="H539">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="I539">
-        <v>80.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="J539">
-        <v>27.15</v>
+        <v>25.65</v>
       </c>
       <c r="K539">
-        <v>33.65</v>
+        <v>32.9</v>
       </c>
       <c r="L539">
-        <v>7390</v>
+        <v>9385</v>
       </c>
       <c r="M539">
-        <v>143500</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="540" spans="1:13">
       <c r="A540">
+        <v>59</v>
+      </c>
+      <c r="B540" s="2">
+        <v>45809</v>
+      </c>
+      <c r="C540">
         <v>58</v>
       </c>
-      <c r="B540" s="2">
-        <v>45839</v>
-      </c>
-      <c r="C540">
-        <v>60</v>
-      </c>
       <c r="D540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540">
         <v>0</v>
       </c>
       <c r="F540">
-        <v>6.233333333333333</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G540">
-        <v>18.2</v>
+        <v>27.2</v>
       </c>
       <c r="H540">
-        <v>2.266666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="I540">
-        <v>81.13333333333334</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="J540">
-        <v>27.7</v>
+        <v>24.8</v>
       </c>
       <c r="K540">
-        <v>34.3</v>
+        <v>32.4</v>
       </c>
       <c r="L540">
-        <v>6580</v>
+        <v>24680</v>
       </c>
       <c r="M540">
-        <v>153667</v>
+        <v>338000</v>
       </c>
     </row>
     <row r="541" spans="1:13">
       <c r="A541">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B541" s="2">
         <v>45717</v>
       </c>
       <c r="C541">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E541">
         <v>0</v>
       </c>
       <c r="F541">
-        <v>5.95</v>
+        <v>6.9</v>
       </c>
       <c r="G541">
-        <v>18</v>
+        <v>20.6</v>
       </c>
       <c r="H541">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I541">
-        <v>72.55000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="J541">
-        <v>23.8</v>
+        <v>29.8</v>
       </c>
       <c r="K541">
-        <v>33.05</v>
+        <v>33.5</v>
       </c>
       <c r="L541">
-        <v>5390</v>
+        <v>9360</v>
       </c>
       <c r="M541">
-        <v>191500</v>
+        <v>265000</v>
       </c>
     </row>
     <row r="542" spans="1:13">
       <c r="A542">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B542" s="2">
         <v>45748</v>
       </c>
       <c r="C542">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542">
         <v>0</v>
       </c>
       <c r="F542">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="G542">
-        <v>26.35</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="H542">
-        <v>3.5</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="I542">
-        <v>76.45</v>
+        <v>89.13333333333333</v>
       </c>
       <c r="J542">
-        <v>25.15</v>
+        <v>30.1</v>
       </c>
       <c r="K542">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="L542">
-        <v>7385</v>
+        <v>8017</v>
       </c>
       <c r="M542">
-        <v>173000</v>
+        <v>227000</v>
       </c>
     </row>
     <row r="543" spans="1:13">
       <c r="A543">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B543" s="2">
         <v>45778</v>
       </c>
       <c r="C543">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E543">
         <v>0</v>
       </c>
       <c r="F543">
-        <v>7.15</v>
+        <v>8</v>
       </c>
       <c r="G543">
-        <v>21.75</v>
+        <v>24</v>
       </c>
       <c r="H543">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I543">
-        <v>78.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="J543">
-        <v>25.65</v>
+        <v>30.2</v>
       </c>
       <c r="K543">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="L543">
-        <v>9385</v>
+        <v>6330</v>
       </c>
       <c r="M543">
-        <v>136000</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="544" spans="1:13">
       <c r="A544">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B544" s="2">
         <v>45809</v>
       </c>
       <c r="C544">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E544">
         <v>0</v>
       </c>
       <c r="F544">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G544">
-        <v>27.2</v>
+        <v>23.9</v>
       </c>
       <c r="H544">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="I544">
-        <v>76.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="J544">
-        <v>24.8</v>
+        <v>30.3</v>
       </c>
       <c r="K544">
-        <v>32.4</v>
+        <v>34.3</v>
       </c>
       <c r="L544">
-        <v>24680</v>
+        <v>8360</v>
       </c>
       <c r="M544">
-        <v>338000</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="545" spans="1:13">
       <c r="A545">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B545" s="2">
         <v>45717</v>
       </c>
       <c r="C545">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D545">
         <v>1</v>
@@ -22741,39 +22741,39 @@
         <v>0</v>
       </c>
       <c r="F545">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="G545">
-        <v>20.6</v>
+        <v>18.1</v>
       </c>
       <c r="H545">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I545">
-        <v>88.2</v>
+        <v>90</v>
       </c>
       <c r="J545">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="K545">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="L545">
-        <v>9360</v>
+        <v>6970</v>
       </c>
       <c r="M545">
-        <v>265000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="546" spans="1:13">
       <c r="A546">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B546" s="2">
         <v>45748</v>
       </c>
       <c r="C546">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D546">
         <v>1</v>
@@ -22782,39 +22782,39 @@
         <v>0</v>
       </c>
       <c r="F546">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="G546">
-        <v>22.83333333333333</v>
+        <v>19.7</v>
       </c>
       <c r="H546">
-        <v>2.566666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="I546">
-        <v>89.13333333333333</v>
+        <v>91.5</v>
       </c>
       <c r="J546">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="K546">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="L546">
-        <v>8017</v>
+        <v>4670</v>
       </c>
       <c r="M546">
-        <v>227000</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="547" spans="1:13">
       <c r="A547">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B547" s="2">
         <v>45778</v>
       </c>
       <c r="C547">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -22823,39 +22823,39 @@
         <v>0</v>
       </c>
       <c r="F547">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="G547">
-        <v>24</v>
+        <v>18.9</v>
       </c>
       <c r="H547">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="I547">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="J547">
-        <v>30.2</v>
+        <v>31.5</v>
       </c>
       <c r="K547">
-        <v>33.3</v>
+        <v>34.9</v>
       </c>
       <c r="L547">
-        <v>6330</v>
+        <v>3780</v>
       </c>
       <c r="M547">
-        <v>208000</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="548" spans="1:13">
       <c r="A548">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B548" s="2">
         <v>45809</v>
       </c>
       <c r="C548">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -22864,28 +22864,28 @@
         <v>0</v>
       </c>
       <c r="F548">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G548">
-        <v>23.9</v>
+        <v>18.3</v>
       </c>
       <c r="H548">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I548">
-        <v>89</v>
+        <v>90.75</v>
       </c>
       <c r="J548">
-        <v>30.3</v>
+        <v>30.65</v>
       </c>
       <c r="K548">
-        <v>34.3</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="L548">
-        <v>8360</v>
+        <v>4840</v>
       </c>
       <c r="M548">
-        <v>208000</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="549" spans="1:13">
@@ -22893,7 +22893,7 @@
         <v>61</v>
       </c>
       <c r="B549" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C549">
         <v>34</v>
@@ -22905,28 +22905,28 @@
         <v>0</v>
       </c>
       <c r="F549">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="G549">
-        <v>18.1</v>
+        <v>22.3</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I549">
-        <v>90</v>
+        <v>88.2</v>
       </c>
       <c r="J549">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="K549">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="L549">
-        <v>6970</v>
+        <v>4300</v>
       </c>
       <c r="M549">
-        <v>132000</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="550" spans="1:13">
@@ -22934,7 +22934,7 @@
         <v>61</v>
       </c>
       <c r="B550" s="2">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C550">
         <v>34</v>
@@ -22946,28 +22946,28 @@
         <v>0</v>
       </c>
       <c r="F550">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G550">
-        <v>19.7</v>
+        <v>20.8</v>
       </c>
       <c r="H550">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I550">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J550">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="K550">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="L550">
-        <v>4670</v>
+        <v>5330</v>
       </c>
       <c r="M550">
-        <v>134000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="551" spans="1:13">
@@ -22975,7 +22975,7 @@
         <v>61</v>
       </c>
       <c r="B551" s="2">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="C551">
         <v>34</v>
@@ -22987,28 +22987,28 @@
         <v>0</v>
       </c>
       <c r="F551">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="G551">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="H551">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I551">
-        <v>91</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="J551">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="K551">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="L551">
-        <v>3780</v>
+        <v>4090</v>
       </c>
       <c r="M551">
-        <v>118000</v>
+        <v>104500</v>
       </c>
     </row>
     <row r="552" spans="1:13">
@@ -23016,7 +23016,7 @@
         <v>61</v>
       </c>
       <c r="B552" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C552">
         <v>34</v>
@@ -23028,28 +23028,28 @@
         <v>0</v>
       </c>
       <c r="F552">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="G552">
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I552">
-        <v>90.75</v>
+        <v>89.2</v>
       </c>
       <c r="J552">
-        <v>30.65</v>
+        <v>30.2</v>
       </c>
       <c r="K552">
-        <v>33.90000000000001</v>
+        <v>33.8</v>
       </c>
       <c r="L552">
-        <v>4840</v>
+        <v>3780</v>
       </c>
       <c r="M552">
-        <v>97000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="553" spans="1:13">
@@ -23057,7 +23057,7 @@
         <v>61</v>
       </c>
       <c r="B553" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C553">
         <v>34</v>
@@ -23069,28 +23069,28 @@
         <v>0</v>
       </c>
       <c r="F553">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="G553">
-        <v>22.3</v>
+        <v>19.45</v>
       </c>
       <c r="H553">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I553">
-        <v>88.2</v>
+        <v>89</v>
       </c>
       <c r="J553">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="K553">
-        <v>34.1</v>
+        <v>33.95</v>
       </c>
       <c r="L553">
-        <v>4300</v>
+        <v>3975</v>
       </c>
       <c r="M553">
-        <v>98000</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="554" spans="1:13">
@@ -23098,10 +23098,10 @@
         <v>61</v>
       </c>
       <c r="B554" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C554">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D554">
         <v>1</v>
@@ -23110,28 +23110,28 @@
         <v>0</v>
       </c>
       <c r="F554">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G554">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="H554">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I554">
-        <v>89.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="J554">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="K554">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="L554">
-        <v>5330</v>
+        <v>4220</v>
       </c>
       <c r="M554">
-        <v>130000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="555" spans="1:13">
@@ -23139,10 +23139,10 @@
         <v>61</v>
       </c>
       <c r="B555" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C555">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -23151,39 +23151,39 @@
         <v>0</v>
       </c>
       <c r="F555">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="G555">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
       <c r="H555">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I555">
-        <v>89.84999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J555">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="K555">
-        <v>34.4</v>
+        <v>33.5</v>
       </c>
       <c r="L555">
-        <v>4090</v>
+        <v>4670</v>
       </c>
       <c r="M555">
-        <v>104500</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="556" spans="1:13">
       <c r="A556">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B556" s="2">
-        <v>45931</v>
+        <v>45689</v>
       </c>
       <c r="C556">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D556">
         <v>1</v>
@@ -23192,80 +23192,80 @@
         <v>0</v>
       </c>
       <c r="F556">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="G556">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="H556">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I556">
-        <v>89.2</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J556">
-        <v>30.2</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K556">
-        <v>33.8</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L556">
-        <v>3780</v>
+        <v>6010</v>
       </c>
       <c r="M556">
-        <v>83000</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="557" spans="1:13">
       <c r="A557">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B557" s="2">
-        <v>45962</v>
+        <v>45717</v>
       </c>
       <c r="C557">
+        <v>48</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>7.3</v>
+      </c>
+      <c r="G557">
+        <v>21.5</v>
+      </c>
+      <c r="H557">
+        <v>2.7</v>
+      </c>
+      <c r="I557">
+        <v>81</v>
+      </c>
+      <c r="J557">
+        <v>27.4</v>
+      </c>
+      <c r="K557">
         <v>34</v>
       </c>
-      <c r="D557">
-        <v>1</v>
-      </c>
-      <c r="E557">
-        <v>0</v>
-      </c>
-      <c r="F557">
-        <v>6.6</v>
-      </c>
-      <c r="G557">
-        <v>19.45</v>
-      </c>
-      <c r="H557">
-        <v>2.2</v>
-      </c>
-      <c r="I557">
-        <v>89</v>
-      </c>
-      <c r="J557">
-        <v>30.2</v>
-      </c>
-      <c r="K557">
-        <v>33.95</v>
-      </c>
       <c r="L557">
-        <v>3975</v>
+        <v>7560</v>
       </c>
       <c r="M557">
-        <v>111000</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="558" spans="1:13">
       <c r="A558">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B558" s="2">
-        <v>45992</v>
+        <v>45748</v>
       </c>
       <c r="C558">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D558">
         <v>1</v>
@@ -23274,39 +23274,39 @@
         <v>0</v>
       </c>
       <c r="F558">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="G558">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="H558">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I558">
-        <v>89.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="J558">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="K558">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="L558">
-        <v>4220</v>
+        <v>5400</v>
       </c>
       <c r="M558">
-        <v>115000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="559" spans="1:13">
       <c r="A559">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B559" s="2">
-        <v>46023</v>
+        <v>45778</v>
       </c>
       <c r="C559">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -23315,28 +23315,28 @@
         <v>0</v>
       </c>
       <c r="F559">
-        <v>6.9</v>
+        <v>6.949999999999999</v>
       </c>
       <c r="G559">
-        <v>20.6</v>
+        <v>21.15</v>
       </c>
       <c r="H559">
-        <v>2.3</v>
+        <v>2.73479293544458</v>
       </c>
       <c r="I559">
-        <v>90.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="J559">
-        <v>30.2</v>
+        <v>26.05</v>
       </c>
       <c r="K559">
-        <v>33.5</v>
+        <v>32.85</v>
       </c>
       <c r="L559">
-        <v>4670</v>
+        <v>4570</v>
       </c>
       <c r="M559">
-        <v>110000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="560" spans="1:13">
@@ -23344,7 +23344,7 @@
         <v>62</v>
       </c>
       <c r="B560" s="2">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="C560">
         <v>48</v>
@@ -23356,28 +23356,28 @@
         <v>0</v>
       </c>
       <c r="F560">
-        <v>7.4</v>
+        <v>5.45</v>
       </c>
       <c r="G560">
-        <v>22.5</v>
+        <v>16.4</v>
       </c>
       <c r="H560">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="I560">
-        <v>87.6186785260483</v>
+        <v>77.95</v>
       </c>
       <c r="J560">
-        <v>29.09733163913596</v>
+        <v>25.9</v>
       </c>
       <c r="K560">
-        <v>33.19593392630242</v>
+        <v>33.2</v>
       </c>
       <c r="L560">
-        <v>6010</v>
+        <v>4665</v>
       </c>
       <c r="M560">
-        <v>86000</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="561" spans="1:13">
@@ -23385,7 +23385,7 @@
         <v>62</v>
       </c>
       <c r="B561" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C561">
         <v>48</v>
@@ -23397,28 +23397,28 @@
         <v>0</v>
       </c>
       <c r="F561">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G561">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="H561">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I561">
-        <v>81</v>
+        <v>79.3</v>
       </c>
       <c r="J561">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="K561">
         <v>34</v>
       </c>
       <c r="L561">
-        <v>7560</v>
+        <v>5340</v>
       </c>
       <c r="M561">
-        <v>76000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="562" spans="1:13">
@@ -23426,7 +23426,7 @@
         <v>62</v>
       </c>
       <c r="B562" s="2">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C562">
         <v>48</v>
@@ -23438,28 +23438,28 @@
         <v>0</v>
       </c>
       <c r="F562">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="G562">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H562">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I562">
-        <v>80.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="J562">
-        <v>27</v>
+        <v>26.1</v>
       </c>
       <c r="K562">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="L562">
-        <v>5400</v>
+        <v>5950</v>
       </c>
       <c r="M562">
-        <v>78000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="563" spans="1:13">
@@ -23467,7 +23467,7 @@
         <v>62</v>
       </c>
       <c r="B563" s="2">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="C563">
         <v>48</v>
@@ -23479,28 +23479,28 @@
         <v>0</v>
       </c>
       <c r="F563">
-        <v>6.949999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="G563">
-        <v>21.15</v>
+        <v>22.8</v>
       </c>
       <c r="H563">
-        <v>2.736172914147521</v>
+        <v>2.9</v>
       </c>
       <c r="I563">
-        <v>79</v>
+        <v>77.7</v>
       </c>
       <c r="J563">
-        <v>26.05</v>
+        <v>26.8</v>
       </c>
       <c r="K563">
-        <v>32.85</v>
+        <v>34.2</v>
       </c>
       <c r="L563">
-        <v>4570</v>
+        <v>6560</v>
       </c>
       <c r="M563">
-        <v>70000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="564" spans="1:13">
@@ -23508,7 +23508,7 @@
         <v>62</v>
       </c>
       <c r="B564" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C564">
         <v>48</v>
@@ -23520,28 +23520,28 @@
         <v>0</v>
       </c>
       <c r="F564">
-        <v>5.45</v>
+        <v>8.1</v>
       </c>
       <c r="G564">
-        <v>16.4</v>
+        <v>24.2</v>
       </c>
       <c r="H564">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I564">
-        <v>77.95</v>
+        <v>79.5</v>
       </c>
       <c r="J564">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="K564">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="L564">
-        <v>4665</v>
+        <v>6710</v>
       </c>
       <c r="M564">
-        <v>97500</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="565" spans="1:13">
@@ -23549,7 +23549,7 @@
         <v>62</v>
       </c>
       <c r="B565" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C565">
         <v>48</v>
@@ -23561,28 +23561,28 @@
         <v>0</v>
       </c>
       <c r="F565">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="G565">
-        <v>24.1</v>
+        <v>22.35</v>
       </c>
       <c r="H565">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I565">
-        <v>79.3</v>
+        <v>78.8</v>
       </c>
       <c r="J565">
-        <v>26.8</v>
+        <v>26.35</v>
       </c>
       <c r="K565">
-        <v>34</v>
+        <v>33.55</v>
       </c>
       <c r="L565">
-        <v>5340</v>
+        <v>4950</v>
       </c>
       <c r="M565">
-        <v>87000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="566" spans="1:13">
@@ -23590,7 +23590,7 @@
         <v>62</v>
       </c>
       <c r="B566" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C566">
         <v>48</v>
@@ -23602,25 +23602,25 @@
         <v>0</v>
       </c>
       <c r="F566">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G566">
-        <v>23</v>
+        <v>27.5</v>
       </c>
       <c r="H566">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I566">
-        <v>78.2</v>
+        <v>79.3</v>
       </c>
       <c r="J566">
-        <v>26.1</v>
+        <v>26.9</v>
       </c>
       <c r="K566">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="L566">
-        <v>5950</v>
+        <v>5080</v>
       </c>
       <c r="M566">
         <v>64000</v>
@@ -23631,10 +23631,10 @@
         <v>62</v>
       </c>
       <c r="B567" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C567">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D567">
         <v>1</v>
@@ -23643,192 +23643,192 @@
         <v>0</v>
       </c>
       <c r="F567">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="G567">
-        <v>22.8</v>
+        <v>19.3</v>
       </c>
       <c r="H567">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I567">
-        <v>77.7</v>
+        <v>81</v>
       </c>
       <c r="J567">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="K567">
         <v>34.2</v>
       </c>
       <c r="L567">
-        <v>6560</v>
+        <v>4020</v>
       </c>
       <c r="M567">
-        <v>84000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="568" spans="1:13">
       <c r="A568">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B568" s="2">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="C568">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568">
         <v>0</v>
       </c>
       <c r="F568">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="G568">
-        <v>24.2</v>
+        <v>22.3</v>
       </c>
       <c r="H568">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I568">
-        <v>79.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="J568">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K568">
-        <v>33.5</v>
+        <v>32.7</v>
       </c>
       <c r="L568">
-        <v>6710</v>
+        <v>10860</v>
       </c>
       <c r="M568">
-        <v>64000</v>
+        <v>202000</v>
       </c>
     </row>
     <row r="569" spans="1:13">
       <c r="A569">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B569" s="2">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="C569">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569">
         <v>0</v>
       </c>
       <c r="F569">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="G569">
-        <v>22.35</v>
+        <v>22.2</v>
       </c>
       <c r="H569">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="I569">
-        <v>78.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J569">
-        <v>26.35</v>
+        <v>27.5</v>
       </c>
       <c r="K569">
-        <v>33.55</v>
+        <v>32</v>
       </c>
       <c r="L569">
-        <v>4950</v>
+        <v>9720</v>
       </c>
       <c r="M569">
-        <v>64000</v>
+        <v>241000</v>
       </c>
     </row>
     <row r="570" spans="1:13">
       <c r="A570">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B570" s="2">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="C570">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D570">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E570">
         <v>0</v>
       </c>
       <c r="F570">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="G570">
-        <v>27.5</v>
+        <v>24.7</v>
       </c>
       <c r="H570">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="I570">
-        <v>79.3</v>
+        <v>87.3</v>
       </c>
       <c r="J570">
-        <v>26.9</v>
+        <v>28.2</v>
       </c>
       <c r="K570">
-        <v>33.8</v>
+        <v>32.4</v>
       </c>
       <c r="L570">
-        <v>5080</v>
+        <v>9760</v>
       </c>
       <c r="M570">
-        <v>64000</v>
+        <v>214500</v>
       </c>
     </row>
     <row r="571" spans="1:13">
       <c r="A571">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B571" s="2">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="C571">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E571">
         <v>0</v>
       </c>
       <c r="F571">
-        <v>6.6</v>
+        <v>7.35</v>
       </c>
       <c r="G571">
-        <v>19.3</v>
+        <v>22.55</v>
       </c>
       <c r="H571">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I571">
-        <v>81</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="J571">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="K571">
-        <v>34.2</v>
+        <v>32.59999999999999</v>
       </c>
       <c r="L571">
-        <v>4020</v>
+        <v>8245</v>
       </c>
       <c r="M571">
-        <v>63000</v>
+        <v>227500</v>
       </c>
     </row>
     <row r="572" spans="1:13">
@@ -23836,7 +23836,7 @@
         <v>64</v>
       </c>
       <c r="B572" s="2">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="C572">
         <v>26</v>
@@ -23848,28 +23848,28 @@
         <v>0</v>
       </c>
       <c r="F572">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G572">
-        <v>22.3</v>
+        <v>26.4</v>
       </c>
       <c r="H572">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I572">
-        <v>82.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="J572">
-        <v>27</v>
+        <v>29.7</v>
       </c>
       <c r="K572">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="L572">
-        <v>10860</v>
+        <v>9140</v>
       </c>
       <c r="M572">
-        <v>202000</v>
+        <v>284000</v>
       </c>
     </row>
     <row r="573" spans="1:13">
@@ -23877,7 +23877,7 @@
         <v>64</v>
       </c>
       <c r="B573" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C573">
         <v>26</v>
@@ -23889,28 +23889,28 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>7.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G573">
-        <v>22.2</v>
+        <v>24.9</v>
       </c>
       <c r="H573">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I573">
-        <v>86.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="J573">
-        <v>27.5</v>
+        <v>30.3</v>
       </c>
       <c r="K573">
-        <v>32</v>
+        <v>33.3</v>
       </c>
       <c r="L573">
-        <v>9720</v>
+        <v>7310</v>
       </c>
       <c r="M573">
-        <v>241000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="574" spans="1:13">
@@ -23918,7 +23918,7 @@
         <v>64</v>
       </c>
       <c r="B574" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C574">
         <v>26</v>
@@ -23930,28 +23930,28 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="G574">
-        <v>24.7</v>
+        <v>19.9</v>
       </c>
       <c r="H574">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="I574">
-        <v>87.3</v>
+        <v>89.8</v>
       </c>
       <c r="J574">
-        <v>28.2</v>
+        <v>30.8</v>
       </c>
       <c r="K574">
-        <v>32.4</v>
+        <v>34.2</v>
       </c>
       <c r="L574">
-        <v>9760</v>
+        <v>5850</v>
       </c>
       <c r="M574">
-        <v>214500</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="575" spans="1:13">
@@ -23959,7 +23959,7 @@
         <v>64</v>
       </c>
       <c r="B575" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C575">
         <v>26</v>
@@ -23971,28 +23971,28 @@
         <v>0</v>
       </c>
       <c r="F575">
-        <v>7.35</v>
+        <v>7.3</v>
       </c>
       <c r="G575">
-        <v>22.55</v>
+        <v>21.5</v>
       </c>
       <c r="H575">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="I575">
-        <v>89.15000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J575">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="K575">
-        <v>32.59999999999999</v>
+        <v>34</v>
       </c>
       <c r="L575">
-        <v>8245</v>
+        <v>6350</v>
       </c>
       <c r="M575">
-        <v>227500</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="576" spans="1:13">
@@ -24000,7 +24000,7 @@
         <v>64</v>
       </c>
       <c r="B576" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C576">
         <v>26</v>
@@ -24012,192 +24012,192 @@
         <v>0</v>
       </c>
       <c r="F576">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G576">
-        <v>26.4</v>
+        <v>24.65</v>
       </c>
       <c r="H576">
         <v>2.9</v>
       </c>
       <c r="I576">
-        <v>90.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="J576">
-        <v>29.7</v>
+        <v>27.85</v>
       </c>
       <c r="K576">
-        <v>33</v>
+        <v>32.45</v>
       </c>
       <c r="L576">
-        <v>9140</v>
+        <v>6685</v>
       </c>
       <c r="M576">
-        <v>284000</v>
+        <v>162500</v>
       </c>
     </row>
     <row r="577" spans="1:13">
       <c r="A577">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B577" s="2">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="C577">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577">
         <v>0</v>
       </c>
       <c r="F577">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="G577">
-        <v>24.9</v>
+        <v>26.9</v>
       </c>
       <c r="H577">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="I577">
-        <v>91.2</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J577">
-        <v>30.3</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K577">
-        <v>33.3</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L577">
-        <v>7310</v>
+        <v>14790</v>
       </c>
       <c r="M577">
-        <v>170000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="578" spans="1:13">
       <c r="A578">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B578" s="2">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="C578">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D578">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E578">
         <v>0</v>
       </c>
       <c r="F578">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G578">
-        <v>19.9</v>
+        <v>25.3</v>
       </c>
       <c r="H578">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I578">
-        <v>89.8</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="J578">
-        <v>30.8</v>
+        <v>28.1</v>
       </c>
       <c r="K578">
-        <v>34.2</v>
+        <v>32.8</v>
       </c>
       <c r="L578">
-        <v>5850</v>
+        <v>5215</v>
       </c>
       <c r="M578">
-        <v>173000</v>
+        <v>300500</v>
       </c>
     </row>
     <row r="579" spans="1:13">
       <c r="A579">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B579" s="2">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="C579">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E579">
         <v>0</v>
       </c>
       <c r="F579">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G579">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="H579">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="I579">
-        <v>88.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J579">
-        <v>30</v>
+        <v>27.7</v>
       </c>
       <c r="K579">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="L579">
-        <v>6350</v>
+        <v>5840</v>
       </c>
       <c r="M579">
-        <v>215000</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="580" spans="1:13">
       <c r="A580">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B580" s="2">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="C580">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D580">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E580">
         <v>0</v>
       </c>
       <c r="F580">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="G580">
-        <v>24.65</v>
+        <v>19.2</v>
       </c>
       <c r="H580">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="I580">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="J580">
-        <v>27.85</v>
+        <v>28.1</v>
       </c>
       <c r="K580">
-        <v>32.45</v>
+        <v>32.8</v>
       </c>
       <c r="L580">
-        <v>6685</v>
+        <v>5200</v>
       </c>
       <c r="M580">
-        <v>162500</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="581" spans="1:13">
@@ -24205,7 +24205,7 @@
         <v>65</v>
       </c>
       <c r="B581" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C581">
         <v>30</v>
@@ -24217,28 +24217,28 @@
         <v>0</v>
       </c>
       <c r="F581">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="G581">
-        <v>26.9</v>
+        <v>23.1</v>
       </c>
       <c r="H581">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="I581">
-        <v>87.6186785260483</v>
+        <v>85.2</v>
       </c>
       <c r="J581">
-        <v>29.09733163913596</v>
+        <v>30.1</v>
       </c>
       <c r="K581">
-        <v>33.19593392630242</v>
+        <v>35.3</v>
       </c>
       <c r="L581">
-        <v>14790</v>
+        <v>4930</v>
       </c>
       <c r="M581">
-        <v>315000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="582" spans="1:13">
@@ -24246,10 +24246,10 @@
         <v>65</v>
       </c>
       <c r="B582" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C582">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D582">
         <v>1</v>
@@ -24258,28 +24258,28 @@
         <v>0</v>
       </c>
       <c r="F582">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="G582">
-        <v>25.3</v>
+        <v>19.9</v>
       </c>
       <c r="H582">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="I582">
-        <v>85.65000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="J582">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="K582">
-        <v>32.8</v>
+        <v>32.3</v>
       </c>
       <c r="L582">
-        <v>5215</v>
+        <v>3790</v>
       </c>
       <c r="M582">
-        <v>300500</v>
+        <v>184000</v>
       </c>
     </row>
     <row r="583" spans="1:13">
@@ -24287,10 +24287,10 @@
         <v>65</v>
       </c>
       <c r="B583" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C583">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D583">
         <v>1</v>
@@ -24299,28 +24299,28 @@
         <v>0</v>
       </c>
       <c r="F583">
-        <v>7.4</v>
+        <v>6.75</v>
       </c>
       <c r="G583">
-        <v>22.3</v>
+        <v>19.75</v>
       </c>
       <c r="H583">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="I583">
-        <v>83.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="J583">
-        <v>27.7</v>
+        <v>29.7</v>
       </c>
       <c r="K583">
-        <v>33.2</v>
+        <v>34.2</v>
       </c>
       <c r="L583">
-        <v>5840</v>
+        <v>4090</v>
       </c>
       <c r="M583">
-        <v>252000</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="584" spans="1:13">
@@ -24328,10 +24328,10 @@
         <v>65</v>
       </c>
       <c r="B584" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C584">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -24340,192 +24340,192 @@
         <v>0</v>
       </c>
       <c r="F584">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="G584">
-        <v>19.2</v>
+        <v>22.3</v>
       </c>
       <c r="H584">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I584">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="J584">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="K584">
-        <v>32.8</v>
+        <v>33.6</v>
       </c>
       <c r="L584">
-        <v>5200</v>
+        <v>4790</v>
       </c>
       <c r="M584">
-        <v>243000</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="585" spans="1:13">
       <c r="A585">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B585" s="2">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="C585">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F585">
-        <v>8.1</v>
+        <v>7.366666666666667</v>
       </c>
       <c r="G585">
-        <v>23.1</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="H585">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I585">
-        <v>85.2</v>
+        <v>90.3</v>
       </c>
       <c r="J585">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="K585">
-        <v>35.3</v>
+        <v>33.86666666666667</v>
       </c>
       <c r="L585">
-        <v>4930</v>
+        <v>6837</v>
       </c>
       <c r="M585">
-        <v>200000</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="586" spans="1:13">
       <c r="A586">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B586" s="2">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="C586">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F586">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="G586">
-        <v>19.9</v>
+        <v>23.2</v>
       </c>
       <c r="H586">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I586">
-        <v>85.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J586">
-        <v>27.6</v>
+        <v>29.4</v>
       </c>
       <c r="K586">
-        <v>32.3</v>
+        <v>34.1</v>
       </c>
       <c r="L586">
-        <v>3790</v>
+        <v>8130</v>
       </c>
       <c r="M586">
-        <v>184000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="587" spans="1:13">
       <c r="A587">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B587" s="2">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="C587">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F587">
-        <v>6.75</v>
+        <v>5.7</v>
       </c>
       <c r="G587">
-        <v>19.75</v>
+        <v>16.8</v>
       </c>
       <c r="H587">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="I587">
-        <v>86.8</v>
+        <v>89.3</v>
       </c>
       <c r="J587">
-        <v>29.7</v>
+        <v>30.4</v>
       </c>
       <c r="K587">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="L587">
-        <v>4090</v>
+        <v>5250</v>
       </c>
       <c r="M587">
-        <v>192500</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="588" spans="1:13">
       <c r="A588">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B588" s="2">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="C588">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F588">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="G588">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="H588">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I588">
-        <v>84.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J588">
-        <v>28.5</v>
+        <v>31.1</v>
       </c>
       <c r="K588">
-        <v>33.6</v>
+        <v>34.7</v>
       </c>
       <c r="L588">
-        <v>4790</v>
+        <v>6300</v>
       </c>
       <c r="M588">
-        <v>181000</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="589" spans="1:13">
@@ -24533,7 +24533,7 @@
         <v>67</v>
       </c>
       <c r="B589" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C589">
         <v>40</v>
@@ -24545,28 +24545,28 @@
         <v>1</v>
       </c>
       <c r="F589">
-        <v>7.366666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="G589">
-        <v>21.76666666666667</v>
+        <v>22.2</v>
       </c>
       <c r="H589">
-        <v>2.4</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="I589">
-        <v>90.3</v>
+        <v>91.3</v>
       </c>
       <c r="J589">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="K589">
-        <v>33.86666666666667</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="L589">
-        <v>6837</v>
+        <v>5917</v>
       </c>
       <c r="M589">
-        <v>163000</v>
+        <v>163333</v>
       </c>
     </row>
     <row r="590" spans="1:13">
@@ -24574,7 +24574,7 @@
         <v>67</v>
       </c>
       <c r="B590" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C590">
         <v>40</v>
@@ -24586,28 +24586,28 @@
         <v>1</v>
       </c>
       <c r="F590">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="G590">
-        <v>23.2</v>
+        <v>20.8</v>
       </c>
       <c r="H590">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="I590">
-        <v>86.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="J590">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="K590">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="L590">
-        <v>8130</v>
+        <v>5370</v>
       </c>
       <c r="M590">
-        <v>113000</v>
+        <v>131000</v>
       </c>
     </row>
     <row r="591" spans="1:13">
@@ -24615,7 +24615,7 @@
         <v>67</v>
       </c>
       <c r="B591" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C591">
         <v>40</v>
@@ -24627,192 +24627,192 @@
         <v>1</v>
       </c>
       <c r="F591">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="G591">
-        <v>16.8</v>
+        <v>21</v>
       </c>
       <c r="H591">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="I591">
-        <v>89.3</v>
+        <v>90.7</v>
       </c>
       <c r="J591">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="K591">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="L591">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="M591">
-        <v>188000</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="592" spans="1:13">
       <c r="A592">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B592" s="2">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="C592">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F592">
-        <v>6.8</v>
+        <v>10.8</v>
       </c>
       <c r="G592">
-        <v>20</v>
+        <v>31.8</v>
       </c>
       <c r="H592">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="I592">
-        <v>90.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="J592">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="K592">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="L592">
-        <v>6300</v>
+        <v>13520</v>
       </c>
       <c r="M592">
-        <v>153000</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="593" spans="1:13">
       <c r="A593">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B593" s="2">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="C593">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F593">
-        <v>7.666666666666667</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G593">
-        <v>22.2</v>
+        <v>29.8</v>
       </c>
       <c r="H593">
-        <v>2.466666666666667</v>
+        <v>3.3</v>
       </c>
       <c r="I593">
-        <v>91.3</v>
+        <v>89.5</v>
       </c>
       <c r="J593">
-        <v>31.4</v>
+        <v>30.35</v>
       </c>
       <c r="K593">
-        <v>34.46666666666667</v>
+        <v>33.9</v>
       </c>
       <c r="L593">
-        <v>5917</v>
+        <v>9830</v>
       </c>
       <c r="M593">
-        <v>163333</v>
+        <v>237500</v>
       </c>
     </row>
     <row r="594" spans="1:13">
       <c r="A594">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B594" s="2">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="C594">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D594">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="G594">
-        <v>20.8</v>
+        <v>24.6</v>
       </c>
       <c r="H594">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I594">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J594">
-        <v>31.3</v>
+        <v>29.7</v>
       </c>
       <c r="K594">
-        <v>34.6</v>
+        <v>32.9</v>
       </c>
       <c r="L594">
-        <v>5370</v>
+        <v>6400</v>
       </c>
       <c r="M594">
-        <v>131000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="595" spans="1:13">
       <c r="A595">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B595" s="2">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="C595">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F595">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="G595">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="H595">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I595">
-        <v>90.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J595">
-        <v>30.7</v>
+        <v>29.4</v>
       </c>
       <c r="K595">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="L595">
-        <v>5300</v>
+        <v>9110</v>
       </c>
       <c r="M595">
-        <v>173000</v>
+        <v>371000</v>
       </c>
     </row>
     <row r="596" spans="1:13">
@@ -24820,7 +24820,7 @@
         <v>68</v>
       </c>
       <c r="B596" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C596">
         <v>56</v>
@@ -24832,28 +24832,28 @@
         <v>0</v>
       </c>
       <c r="F596">
-        <v>10.8</v>
+        <v>7.7</v>
       </c>
       <c r="G596">
-        <v>31.8</v>
+        <v>22.7</v>
       </c>
       <c r="H596">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="I596">
-        <v>90</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="J596">
-        <v>30.5</v>
+        <v>29.05</v>
       </c>
       <c r="K596">
-        <v>34</v>
+        <v>33.95</v>
       </c>
       <c r="L596">
-        <v>13520</v>
+        <v>8590</v>
       </c>
       <c r="M596">
-        <v>275000</v>
+        <v>326500</v>
       </c>
     </row>
     <row r="597" spans="1:13">
@@ -24861,7 +24861,7 @@
         <v>68</v>
       </c>
       <c r="B597" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C597">
         <v>56</v>
@@ -24873,28 +24873,28 @@
         <v>0</v>
       </c>
       <c r="F597">
-        <v>8.699999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="G597">
-        <v>29.8</v>
+        <v>22.5</v>
       </c>
       <c r="H597">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="I597">
-        <v>89.5</v>
+        <v>89.25</v>
       </c>
       <c r="J597">
         <v>30.35</v>
       </c>
       <c r="K597">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="L597">
-        <v>9830</v>
+        <v>8460</v>
       </c>
       <c r="M597">
-        <v>237500</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="598" spans="1:13">
@@ -24902,10 +24902,10 @@
         <v>68</v>
       </c>
       <c r="B598" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C598">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -24914,192 +24914,192 @@
         <v>0</v>
       </c>
       <c r="F598">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G598">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="H598">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I598">
-        <v>90.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="J598">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="K598">
-        <v>32.9</v>
+        <v>34.3</v>
       </c>
       <c r="L598">
-        <v>6400</v>
+        <v>8382</v>
       </c>
       <c r="M598">
-        <v>195000</v>
+        <v>225091</v>
       </c>
     </row>
     <row r="599" spans="1:13">
       <c r="A599">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B599" s="2">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="C599">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E599">
         <v>0</v>
       </c>
       <c r="F599">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="G599">
-        <v>21.7</v>
+        <v>26.9</v>
       </c>
       <c r="H599">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="I599">
-        <v>87.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J599">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="K599">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="L599">
-        <v>9110</v>
+        <v>10430</v>
       </c>
       <c r="M599">
-        <v>371000</v>
+        <v>423000</v>
       </c>
     </row>
     <row r="600" spans="1:13">
       <c r="A600">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B600" s="2">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="C600">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E600">
         <v>0</v>
       </c>
       <c r="F600">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="G600">
-        <v>22.7</v>
+        <v>15.2</v>
       </c>
       <c r="H600">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="I600">
-        <v>85.84999999999999</v>
+        <v>85</v>
       </c>
       <c r="J600">
-        <v>29.05</v>
+        <v>28</v>
       </c>
       <c r="K600">
-        <v>33.95</v>
+        <v>32.9</v>
       </c>
       <c r="L600">
-        <v>8590</v>
+        <v>1510</v>
       </c>
       <c r="M600">
-        <v>326500</v>
+        <v>237000</v>
       </c>
     </row>
     <row r="601" spans="1:13">
       <c r="A601">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B601" s="2">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="C601">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E601">
         <v>0</v>
       </c>
       <c r="F601">
-        <v>7.65</v>
+        <v>5.8</v>
       </c>
       <c r="G601">
-        <v>22.5</v>
+        <v>17.3</v>
       </c>
       <c r="H601">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="I601">
-        <v>89.25</v>
+        <v>80.5</v>
       </c>
       <c r="J601">
-        <v>30.35</v>
+        <v>26.8</v>
       </c>
       <c r="K601">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="L601">
-        <v>8460</v>
+        <v>10710</v>
       </c>
       <c r="M601">
-        <v>436000</v>
+        <v>378000</v>
       </c>
     </row>
     <row r="602" spans="1:13">
       <c r="A602">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B602" s="2">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="C602">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E602">
         <v>0</v>
       </c>
       <c r="F602">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="G602">
-        <v>24.2</v>
+        <v>20.9</v>
       </c>
       <c r="H602">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I602">
-        <v>88</v>
+        <v>84.3</v>
       </c>
       <c r="J602">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="K602">
-        <v>34.3</v>
+        <v>33.5</v>
       </c>
       <c r="L602">
-        <v>8425</v>
+        <v>8190</v>
       </c>
       <c r="M602">
-        <v>226158</v>
+        <v>277000</v>
       </c>
     </row>
     <row r="603" spans="1:13">
@@ -25107,10 +25107,10 @@
         <v>69</v>
       </c>
       <c r="B603" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C603">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -25119,162 +25119,162 @@
         <v>0</v>
       </c>
       <c r="F603">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="G603">
-        <v>26.9</v>
+        <v>24</v>
       </c>
       <c r="H603">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I603">
-        <v>85.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="J603">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="K603">
         <v>33.8</v>
       </c>
       <c r="L603">
-        <v>10430</v>
+        <v>6720</v>
       </c>
       <c r="M603">
-        <v>423000</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="604" spans="1:13">
       <c r="A604">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B604" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="C604">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E604">
         <v>0</v>
       </c>
       <c r="F604">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="G604">
-        <v>15.2</v>
+        <v>25.4</v>
       </c>
       <c r="H604">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I604">
-        <v>85</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="J604">
-        <v>28</v>
+        <v>30.7</v>
       </c>
       <c r="K604">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
       <c r="L604">
-        <v>1510</v>
+        <v>6000</v>
       </c>
       <c r="M604">
-        <v>237000</v>
+        <v>227000</v>
       </c>
     </row>
     <row r="605" spans="1:13">
       <c r="A605">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B605" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="C605">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E605">
         <v>0</v>
       </c>
       <c r="F605">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="G605">
-        <v>17.3</v>
+        <v>20.25</v>
       </c>
       <c r="H605">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I605">
-        <v>80.5</v>
+        <v>89.94999999999999</v>
       </c>
       <c r="J605">
-        <v>26.8</v>
+        <v>30.15</v>
       </c>
       <c r="K605">
-        <v>33.5</v>
+        <v>33.35</v>
       </c>
       <c r="L605">
-        <v>10710</v>
+        <v>11740</v>
       </c>
       <c r="M605">
-        <v>378000</v>
+        <v>271500</v>
       </c>
     </row>
     <row r="606" spans="1:13">
       <c r="A606">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B606" s="2">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="C606">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E606">
         <v>0</v>
       </c>
       <c r="F606">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="G606">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="H606">
         <v>2.5</v>
       </c>
       <c r="I606">
-        <v>84.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="J606">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="K606">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="L606">
-        <v>8190</v>
+        <v>12990</v>
       </c>
       <c r="M606">
-        <v>277000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="607" spans="1:13">
       <c r="A607">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B607" s="2">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="C607">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -25286,121 +25286,121 @@
         <v>8.1</v>
       </c>
       <c r="G607">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="H607">
-        <v>2.8</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="I607">
-        <v>85.7</v>
+        <v>85.13333333333334</v>
       </c>
       <c r="J607">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="K607">
-        <v>33.8</v>
+        <v>33.96666666666667</v>
       </c>
       <c r="L607">
-        <v>6720</v>
+        <v>11807</v>
       </c>
       <c r="M607">
-        <v>286000</v>
+        <v>221030</v>
       </c>
     </row>
     <row r="608" spans="1:13">
       <c r="A608">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B608" s="2">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="C608">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E608">
         <v>0</v>
       </c>
       <c r="F608">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="G608">
-        <v>25.4</v>
+        <v>17.6</v>
       </c>
       <c r="H608">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="I608">
-        <v>90.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="J608">
-        <v>30.7</v>
+        <v>28.5</v>
       </c>
       <c r="K608">
-        <v>33.9</v>
+        <v>33</v>
       </c>
       <c r="L608">
-        <v>6000</v>
+        <v>8260</v>
       </c>
       <c r="M608">
-        <v>227000</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="609" spans="1:13">
       <c r="A609">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B609" s="2">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="C609">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E609">
         <v>0</v>
       </c>
       <c r="F609">
-        <v>6.75</v>
+        <v>8.9</v>
       </c>
       <c r="G609">
-        <v>20.25</v>
+        <v>26.7</v>
       </c>
       <c r="H609">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="I609">
-        <v>89.94999999999999</v>
+        <v>86</v>
       </c>
       <c r="J609">
-        <v>30.15</v>
+        <v>28.6</v>
       </c>
       <c r="K609">
-        <v>33.35</v>
+        <v>33.3</v>
       </c>
       <c r="L609">
-        <v>11740</v>
+        <v>7940</v>
       </c>
       <c r="M609">
-        <v>271500</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="610" spans="1:13">
       <c r="A610">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B610" s="2">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="C610">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E610">
         <v>0</v>
@@ -25409,25 +25409,25 @@
         <v>7.1</v>
       </c>
       <c r="G610">
-        <v>21.1</v>
+        <v>22</v>
       </c>
       <c r="H610">
         <v>2.5</v>
       </c>
       <c r="I610">
-        <v>86.09999999999999</v>
+        <v>88.25</v>
       </c>
       <c r="J610">
-        <v>28.9</v>
+        <v>29.45</v>
       </c>
       <c r="K610">
-        <v>33.6</v>
+        <v>33.15</v>
       </c>
       <c r="L610">
-        <v>12990</v>
+        <v>4815</v>
       </c>
       <c r="M610">
-        <v>288000</v>
+        <v>127500</v>
       </c>
     </row>
     <row r="611" spans="1:13">
@@ -25435,7 +25435,7 @@
         <v>71</v>
       </c>
       <c r="B611" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C611">
         <v>62</v>
@@ -25447,28 +25447,28 @@
         <v>0</v>
       </c>
       <c r="F611">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="G611">
-        <v>23.9</v>
+        <v>22.7</v>
       </c>
       <c r="H611">
-        <v>2.833333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="I611">
-        <v>85.13333333333334</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="J611">
-        <v>29</v>
+        <v>29.85</v>
       </c>
       <c r="K611">
-        <v>33.96666666666667</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="L611">
-        <v>11822</v>
+        <v>6410</v>
       </c>
       <c r="M611">
-        <v>221386</v>
+        <v>128500</v>
       </c>
     </row>
     <row r="612" spans="1:13">
@@ -25476,7 +25476,7 @@
         <v>71</v>
       </c>
       <c r="B612" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C612">
         <v>62</v>
@@ -25488,39 +25488,39 @@
         <v>0</v>
       </c>
       <c r="F612">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G612">
-        <v>17.6</v>
+        <v>24.4</v>
       </c>
       <c r="H612">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="I612">
-        <v>85.8</v>
+        <v>87.3</v>
       </c>
       <c r="J612">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="K612">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L612">
-        <v>8260</v>
+        <v>5070</v>
       </c>
       <c r="M612">
-        <v>266000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="613" spans="1:13">
       <c r="A613">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B613" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="C613">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -25529,39 +25529,39 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="G613">
-        <v>26.7</v>
+        <v>28.7</v>
       </c>
       <c r="H613">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I613">
-        <v>86</v>
+        <v>84.8</v>
       </c>
       <c r="J613">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="K613">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="L613">
-        <v>7940</v>
+        <v>11030</v>
       </c>
       <c r="M613">
-        <v>164000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="614" spans="1:13">
       <c r="A614">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B614" s="2">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="C614">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -25570,39 +25570,39 @@
         <v>0</v>
       </c>
       <c r="F614">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="G614">
-        <v>22</v>
+        <v>17.6</v>
       </c>
       <c r="H614">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I614">
-        <v>88.25</v>
+        <v>80.7</v>
       </c>
       <c r="J614">
-        <v>29.45</v>
+        <v>27.3</v>
       </c>
       <c r="K614">
-        <v>33.15</v>
+        <v>34.1</v>
       </c>
       <c r="L614">
-        <v>4815</v>
+        <v>16550</v>
       </c>
       <c r="M614">
-        <v>127500</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="615" spans="1:13">
       <c r="A615">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B615" s="2">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="C615">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -25611,39 +25611,39 @@
         <v>0</v>
       </c>
       <c r="F615">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="G615">
-        <v>22.7</v>
+        <v>16.8</v>
       </c>
       <c r="H615">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I615">
-        <v>88.15000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="J615">
-        <v>29.85</v>
+        <v>27.4</v>
       </c>
       <c r="K615">
-        <v>33.90000000000001</v>
+        <v>31.5</v>
       </c>
       <c r="L615">
-        <v>6410</v>
+        <v>12920</v>
       </c>
       <c r="M615">
-        <v>128500</v>
+        <v>326000</v>
       </c>
     </row>
     <row r="616" spans="1:13">
       <c r="A616">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B616" s="2">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="C616">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -25652,28 +25652,28 @@
         <v>0</v>
       </c>
       <c r="F616">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G616">
-        <v>24.4</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="H616">
-        <v>2.8</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="I616">
-        <v>87.3</v>
+        <v>87.23333333333333</v>
       </c>
       <c r="J616">
-        <v>29.5</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="K616">
-        <v>34</v>
+        <v>32.4</v>
       </c>
       <c r="L616">
-        <v>5070</v>
+        <v>9550</v>
       </c>
       <c r="M616">
-        <v>150000</v>
+        <v>332333</v>
       </c>
     </row>
     <row r="617" spans="1:13">
@@ -25681,7 +25681,7 @@
         <v>72</v>
       </c>
       <c r="B617" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C617">
         <v>54</v>
@@ -25693,192 +25693,192 @@
         <v>0</v>
       </c>
       <c r="F617">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G617">
-        <v>28.7</v>
+        <v>26.1</v>
       </c>
       <c r="H617">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I617">
-        <v>84.8</v>
+        <v>86.7</v>
       </c>
       <c r="J617">
-        <v>28.2</v>
+        <v>27.7</v>
       </c>
       <c r="K617">
-        <v>33.1</v>
+        <v>31.8</v>
       </c>
       <c r="L617">
-        <v>11030</v>
+        <v>9370</v>
       </c>
       <c r="M617">
-        <v>89000</v>
+        <v>308000</v>
       </c>
     </row>
     <row r="618" spans="1:13">
       <c r="A618">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B618" s="2">
-        <v>45931</v>
+        <v>45689</v>
       </c>
       <c r="C618">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D618">
         <v>0</v>
       </c>
       <c r="E618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F618">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="G618">
-        <v>17.6</v>
+        <v>32.3</v>
       </c>
       <c r="H618">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="I618">
-        <v>80.7</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J618">
-        <v>27.3</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K618">
-        <v>34.1</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L618">
-        <v>16550</v>
+        <v>6710</v>
       </c>
       <c r="M618">
-        <v>282000</v>
+        <v>249000</v>
       </c>
     </row>
     <row r="619" spans="1:13">
       <c r="A619">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B619" s="2">
-        <v>45962</v>
+        <v>45717</v>
       </c>
       <c r="C619">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D619">
         <v>0</v>
       </c>
       <c r="E619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F619">
-        <v>5.3</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="G619">
-        <v>16.8</v>
+        <v>25.64242362800757</v>
       </c>
       <c r="H619">
-        <v>1.9</v>
+        <v>2.854953985654351</v>
       </c>
       <c r="I619">
-        <v>86.8</v>
+        <v>89.6044814340589</v>
       </c>
       <c r="J619">
-        <v>27.4</v>
+        <v>30.66050647318253</v>
       </c>
       <c r="K619">
-        <v>31.5</v>
+        <v>34.22633731683027</v>
       </c>
       <c r="L619">
-        <v>12920</v>
+        <v>5297</v>
       </c>
       <c r="M619">
-        <v>326000</v>
+        <v>167343</v>
       </c>
     </row>
     <row r="620" spans="1:13">
       <c r="A620">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B620" s="2">
-        <v>45992</v>
+        <v>45748</v>
       </c>
       <c r="C620">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D620">
         <v>0</v>
       </c>
       <c r="E620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F620">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G620">
-        <v>25.93333333333333</v>
+        <v>28.2</v>
       </c>
       <c r="H620">
-        <v>2.966666666666667</v>
+        <v>3.1</v>
       </c>
       <c r="I620">
-        <v>87.23333333333333</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J620">
-        <v>28.26666666666667</v>
+        <v>31.8</v>
       </c>
       <c r="K620">
-        <v>32.4</v>
+        <v>34.8</v>
       </c>
       <c r="L620">
-        <v>9550</v>
+        <v>4870</v>
       </c>
       <c r="M620">
-        <v>332333</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="621" spans="1:13">
       <c r="A621">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B621" s="2">
-        <v>46023</v>
+        <v>45778</v>
       </c>
       <c r="C621">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D621">
         <v>0</v>
       </c>
       <c r="E621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F621">
-        <v>8.300000000000001</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="G621">
-        <v>26.1</v>
+        <v>25.64242362800757</v>
       </c>
       <c r="H621">
-        <v>3</v>
+        <v>2.854953985654351</v>
       </c>
       <c r="I621">
-        <v>86.7</v>
+        <v>89.6044814340589</v>
       </c>
       <c r="J621">
-        <v>27.7</v>
+        <v>30.66050647318253</v>
       </c>
       <c r="K621">
-        <v>31.8</v>
+        <v>34.22633731683027</v>
       </c>
       <c r="L621">
-        <v>9370</v>
+        <v>5297</v>
       </c>
       <c r="M621">
-        <v>308000</v>
+        <v>167343</v>
       </c>
     </row>
     <row r="622" spans="1:13">
@@ -25886,7 +25886,7 @@
         <v>73</v>
       </c>
       <c r="B622" s="2">
-        <v>45689</v>
+        <v>45809</v>
       </c>
       <c r="C622">
         <v>64</v>
@@ -25898,28 +25898,28 @@
         <v>1</v>
       </c>
       <c r="F622">
-        <v>10.8</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="G622">
-        <v>32.3</v>
+        <v>25.64242362800757</v>
       </c>
       <c r="H622">
-        <v>3.5</v>
+        <v>2.854953985654351</v>
       </c>
       <c r="I622">
-        <v>87.6186785260483</v>
+        <v>89.6044814340589</v>
       </c>
       <c r="J622">
-        <v>29.09733163913596</v>
+        <v>30.66050647318253</v>
       </c>
       <c r="K622">
-        <v>33.19593392630242</v>
+        <v>34.22633731683027</v>
       </c>
       <c r="L622">
-        <v>6710</v>
+        <v>5297</v>
       </c>
       <c r="M622">
-        <v>249000</v>
+        <v>167343</v>
       </c>
     </row>
     <row r="623" spans="1:13">
@@ -25927,10 +25927,10 @@
         <v>73</v>
       </c>
       <c r="B623" s="2">
-        <v>45717</v>
+        <v>45839</v>
       </c>
       <c r="C623">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -25939,28 +25939,28 @@
         <v>1</v>
       </c>
       <c r="F623">
-        <v>8.716666666666667</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G623">
-        <v>25.64346484165325</v>
+        <v>27.1</v>
       </c>
       <c r="H623">
-        <v>2.855260647588338</v>
+        <v>2.9</v>
       </c>
       <c r="I623">
-        <v>89.59303967245518</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="J623">
-        <v>30.65496258647466</v>
+        <v>31.9</v>
       </c>
       <c r="K623">
-        <v>34.22409642806721</v>
+        <v>34.3</v>
       </c>
       <c r="L623">
-        <v>5302</v>
+        <v>4890</v>
       </c>
       <c r="M623">
-        <v>167462</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="624" spans="1:13">
@@ -25968,10 +25968,10 @@
         <v>73</v>
       </c>
       <c r="B624" s="2">
-        <v>45748</v>
+        <v>45870</v>
       </c>
       <c r="C624">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -25980,28 +25980,28 @@
         <v>1</v>
       </c>
       <c r="F624">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="G624">
-        <v>28.2</v>
+        <v>25.3</v>
       </c>
       <c r="H624">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I624">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="J624">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="K624">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
       <c r="L624">
-        <v>4870</v>
+        <v>4020</v>
       </c>
       <c r="M624">
-        <v>260000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="625" spans="1:13">
@@ -26009,10 +26009,10 @@
         <v>73</v>
       </c>
       <c r="B625" s="2">
-        <v>45778</v>
+        <v>45901</v>
       </c>
       <c r="C625">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D625">
         <v>0</v>
@@ -26021,28 +26021,28 @@
         <v>1</v>
       </c>
       <c r="F625">
-        <v>8.716666666666667</v>
+        <v>8.35</v>
       </c>
       <c r="G625">
-        <v>25.64346484165325</v>
+        <v>23.85</v>
       </c>
       <c r="H625">
-        <v>2.855260647588338</v>
+        <v>2.85</v>
       </c>
       <c r="I625">
-        <v>89.59303967245518</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J625">
-        <v>30.65496258647466</v>
+        <v>29.35</v>
       </c>
       <c r="K625">
-        <v>34.22409642806721</v>
+        <v>35</v>
       </c>
       <c r="L625">
-        <v>5302</v>
+        <v>3215</v>
       </c>
       <c r="M625">
-        <v>167462</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="626" spans="1:13">
@@ -26050,10 +26050,10 @@
         <v>73</v>
       </c>
       <c r="B626" s="2">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="C626">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D626">
         <v>0</v>
@@ -26062,28 +26062,28 @@
         <v>1</v>
       </c>
       <c r="F626">
-        <v>8.716666666666667</v>
+        <v>7.95</v>
       </c>
       <c r="G626">
-        <v>25.64346484165325</v>
+        <v>23.325</v>
       </c>
       <c r="H626">
-        <v>2.855260647588338</v>
+        <v>2.675</v>
       </c>
       <c r="I626">
-        <v>89.59303967245518</v>
+        <v>87.55</v>
       </c>
       <c r="J626">
-        <v>30.65496258647466</v>
+        <v>29.9</v>
       </c>
       <c r="K626">
-        <v>34.22409642806721</v>
+        <v>34.175</v>
       </c>
       <c r="L626">
-        <v>5302</v>
+        <v>5595</v>
       </c>
       <c r="M626">
-        <v>167462</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="627" spans="1:13">
@@ -26091,7 +26091,7 @@
         <v>73</v>
       </c>
       <c r="B627" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C627">
         <v>65</v>
@@ -26103,28 +26103,28 @@
         <v>1</v>
       </c>
       <c r="F627">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G627">
-        <v>27.1</v>
+        <v>24.15681265206813</v>
       </c>
       <c r="H627">
-        <v>2.9</v>
+        <v>2.76958587088916</v>
       </c>
       <c r="I627">
-        <v>92.40000000000001</v>
+        <v>87.67016645326504</v>
       </c>
       <c r="J627">
-        <v>31.9</v>
+        <v>29.12227912932138</v>
       </c>
       <c r="K627">
-        <v>34.3</v>
+        <v>33.20601792573624</v>
       </c>
       <c r="L627">
-        <v>4890</v>
+        <v>8382</v>
       </c>
       <c r="M627">
-        <v>194000</v>
+        <v>225091</v>
       </c>
     </row>
     <row r="628" spans="1:13">
@@ -26132,7 +26132,7 @@
         <v>73</v>
       </c>
       <c r="B628" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C628">
         <v>65</v>
@@ -26144,28 +26144,28 @@
         <v>1</v>
       </c>
       <c r="F628">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="G628">
-        <v>25.3</v>
+        <v>21.85</v>
       </c>
       <c r="H628">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I628">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="J628">
-        <v>32</v>
+        <v>31.75</v>
       </c>
       <c r="K628">
-        <v>35.2</v>
+        <v>34.34999999999999</v>
       </c>
       <c r="L628">
-        <v>4020</v>
+        <v>4430</v>
       </c>
       <c r="M628">
-        <v>179000</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="629" spans="1:13">
@@ -26173,7 +26173,7 @@
         <v>73</v>
       </c>
       <c r="B629" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C629">
         <v>65</v>
@@ -26188,353 +26188,353 @@
         <v>8.35</v>
       </c>
       <c r="G629">
-        <v>23.85</v>
+        <v>24.7</v>
       </c>
       <c r="H629">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="I629">
-        <v>83.59999999999999</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="J629">
-        <v>29.35</v>
+        <v>31</v>
       </c>
       <c r="K629">
-        <v>35</v>
+        <v>33.8</v>
       </c>
       <c r="L629">
-        <v>3215</v>
+        <v>5560</v>
       </c>
       <c r="M629">
-        <v>156500</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="630" spans="1:13">
       <c r="A630">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B630" s="2">
         <v>45931</v>
       </c>
       <c r="C630">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D630">
         <v>0</v>
       </c>
       <c r="E630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F630">
-        <v>7.95</v>
+        <v>9.033333333333333</v>
       </c>
       <c r="G630">
-        <v>23.325</v>
+        <v>27.7</v>
       </c>
       <c r="H630">
-        <v>2.675</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="I630">
-        <v>87.55</v>
+        <v>73.06666666666666</v>
       </c>
       <c r="J630">
-        <v>29.9</v>
+        <v>23.9</v>
       </c>
       <c r="K630">
-        <v>34.175</v>
+        <v>32.63333333333333</v>
       </c>
       <c r="L630">
-        <v>5595</v>
+        <v>13343</v>
       </c>
       <c r="M630">
-        <v>84000</v>
+        <v>211667</v>
       </c>
     </row>
     <row r="631" spans="1:13">
       <c r="A631">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B631" s="2">
         <v>45962</v>
       </c>
       <c r="C631">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D631">
         <v>0</v>
       </c>
       <c r="E631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F631">
-        <v>8.6</v>
+        <v>8.072222222222221</v>
       </c>
       <c r="G631">
-        <v>24.16618357487922</v>
+        <v>24.39444444444445</v>
       </c>
       <c r="H631">
-        <v>2.772345828295042</v>
+        <v>3.244444444444444</v>
       </c>
       <c r="I631">
-        <v>87.6186785260483</v>
+        <v>75.55</v>
       </c>
       <c r="J631">
-        <v>29.09733163913596</v>
+        <v>25.02222222222222</v>
       </c>
       <c r="K631">
-        <v>33.19593392630242</v>
+        <v>33.10555555555555</v>
       </c>
       <c r="L631">
-        <v>8425</v>
+        <v>10148</v>
       </c>
       <c r="M631">
-        <v>226158</v>
+        <v>238722</v>
       </c>
     </row>
     <row r="632" spans="1:13">
       <c r="A632">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B632" s="2">
         <v>45992</v>
       </c>
       <c r="C632">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D632">
         <v>0</v>
       </c>
       <c r="E632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F632">
-        <v>7.5</v>
+        <v>7.35</v>
       </c>
       <c r="G632">
-        <v>21.85</v>
+        <v>21.65</v>
       </c>
       <c r="H632">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="I632">
-        <v>92.8</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="J632">
-        <v>31.75</v>
+        <v>26.1</v>
       </c>
       <c r="K632">
-        <v>34.34999999999999</v>
+        <v>33.84999999999999</v>
       </c>
       <c r="L632">
-        <v>4430</v>
+        <v>8130</v>
       </c>
       <c r="M632">
-        <v>64500</v>
+        <v>243500</v>
       </c>
     </row>
     <row r="633" spans="1:13">
       <c r="A633">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B633" s="2">
         <v>46023</v>
       </c>
       <c r="C633">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D633">
         <v>0</v>
       </c>
       <c r="E633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F633">
-        <v>8.35</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="G633">
-        <v>24.7</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="H633">
-        <v>2.7</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="I633">
-        <v>91.65000000000001</v>
+        <v>76.43333333333334</v>
       </c>
       <c r="J633">
-        <v>31</v>
+        <v>25.06666666666667</v>
       </c>
       <c r="K633">
-        <v>33.8</v>
+        <v>32.83333333333334</v>
       </c>
       <c r="L633">
-        <v>5560</v>
+        <v>8970</v>
       </c>
       <c r="M633">
-        <v>94000</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="634" spans="1:13">
       <c r="A634">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B634" s="2">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="C634">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F634">
-        <v>9.033333333333333</v>
+        <v>6.6</v>
       </c>
       <c r="G634">
-        <v>27.7</v>
+        <v>19.8</v>
       </c>
       <c r="H634">
-        <v>3.799999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="I634">
-        <v>73.06666666666666</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J634">
-        <v>23.9</v>
+        <v>29.1</v>
       </c>
       <c r="K634">
-        <v>32.63333333333333</v>
+        <v>33.3</v>
       </c>
       <c r="L634">
-        <v>13343</v>
+        <v>12410</v>
       </c>
       <c r="M634">
-        <v>211667</v>
+        <v>343000</v>
       </c>
     </row>
     <row r="635" spans="1:13">
       <c r="A635">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B635" s="2">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="C635">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F635">
-        <v>8.072222222222221</v>
+        <v>8.35</v>
       </c>
       <c r="G635">
-        <v>24.39444444444445</v>
+        <v>24.92</v>
       </c>
       <c r="H635">
-        <v>3.244444444444444</v>
+        <v>2.88</v>
       </c>
       <c r="I635">
-        <v>75.55</v>
+        <v>87.08</v>
       </c>
       <c r="J635">
-        <v>25.02222222222222</v>
+        <v>29.17</v>
       </c>
       <c r="K635">
-        <v>33.10555555555555</v>
+        <v>33.52</v>
       </c>
       <c r="L635">
-        <v>10148</v>
+        <v>7788</v>
       </c>
       <c r="M635">
-        <v>238722</v>
+        <v>233100</v>
       </c>
     </row>
     <row r="636" spans="1:13">
       <c r="A636">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B636" s="2">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="C636">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F636">
-        <v>7.35</v>
+        <v>8.35</v>
       </c>
       <c r="G636">
-        <v>21.65</v>
+        <v>24.92</v>
       </c>
       <c r="H636">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I636">
-        <v>77.15000000000001</v>
+        <v>87.08</v>
       </c>
       <c r="J636">
-        <v>26.1</v>
+        <v>29.17</v>
       </c>
       <c r="K636">
-        <v>33.84999999999999</v>
+        <v>33.52</v>
       </c>
       <c r="L636">
-        <v>8130</v>
+        <v>7788</v>
       </c>
       <c r="M636">
-        <v>243500</v>
+        <v>233100</v>
       </c>
     </row>
     <row r="637" spans="1:13">
       <c r="A637">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B637" s="2">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="C637">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F637">
-        <v>7.833333333333333</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G637">
-        <v>23.83333333333333</v>
+        <v>28</v>
       </c>
       <c r="H637">
-        <v>3.133333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="I637">
-        <v>76.43333333333334</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="J637">
-        <v>25.06666666666667</v>
+        <v>29.2</v>
       </c>
       <c r="K637">
-        <v>32.83333333333334</v>
+        <v>33.2</v>
       </c>
       <c r="L637">
-        <v>8970</v>
+        <v>4790</v>
       </c>
       <c r="M637">
-        <v>261000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="638" spans="1:13">
@@ -26542,7 +26542,7 @@
         <v>75</v>
       </c>
       <c r="B638" s="2">
-        <v>45839</v>
+        <v>45962</v>
       </c>
       <c r="C638">
         <v>57</v>
@@ -26554,28 +26554,28 @@
         <v>1</v>
       </c>
       <c r="F638">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G638">
-        <v>19.8</v>
+        <v>29.55</v>
       </c>
       <c r="H638">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="I638">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="J638">
-        <v>29.1</v>
+        <v>28.95</v>
       </c>
       <c r="K638">
-        <v>33.3</v>
+        <v>33.15</v>
       </c>
       <c r="L638">
-        <v>12410</v>
+        <v>6720</v>
       </c>
       <c r="M638">
-        <v>343000</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="639" spans="1:13">
@@ -26583,7 +26583,7 @@
         <v>75</v>
       </c>
       <c r="B639" s="2">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="C639">
         <v>57</v>
@@ -26595,28 +26595,28 @@
         <v>1</v>
       </c>
       <c r="F639">
-        <v>8.35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G639">
-        <v>24.92</v>
+        <v>25.6</v>
       </c>
       <c r="H639">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I639">
-        <v>87.08</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="J639">
-        <v>29.17</v>
+        <v>29.2</v>
       </c>
       <c r="K639">
-        <v>33.52</v>
+        <v>34</v>
       </c>
       <c r="L639">
-        <v>7788</v>
+        <v>7830</v>
       </c>
       <c r="M639">
-        <v>233100</v>
+        <v>242000</v>
       </c>
     </row>
     <row r="640" spans="1:13">
@@ -26624,7 +26624,7 @@
         <v>75</v>
       </c>
       <c r="B640" s="2">
-        <v>45901</v>
+        <v>46023</v>
       </c>
       <c r="C640">
         <v>57</v>
@@ -26636,191 +26636,27 @@
         <v>1</v>
       </c>
       <c r="F640">
-        <v>8.35</v>
+        <v>7.35</v>
       </c>
       <c r="G640">
-        <v>24.92</v>
+        <v>21.65</v>
       </c>
       <c r="H640">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="I640">
-        <v>87.08</v>
+        <v>86.5</v>
       </c>
       <c r="J640">
-        <v>29.17</v>
+        <v>29.4</v>
       </c>
       <c r="K640">
-        <v>33.52</v>
+        <v>33.95</v>
       </c>
       <c r="L640">
-        <v>7788</v>
+        <v>7190</v>
       </c>
       <c r="M640">
-        <v>233100</v>
-      </c>
-    </row>
-    <row r="641" spans="1:13">
-      <c r="A641">
-        <v>75</v>
-      </c>
-      <c r="B641" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C641">
-        <v>57</v>
-      </c>
-      <c r="D641">
-        <v>1</v>
-      </c>
-      <c r="E641">
-        <v>1</v>
-      </c>
-      <c r="F641">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G641">
-        <v>28</v>
-      </c>
-      <c r="H641">
-        <v>3.2</v>
-      </c>
-      <c r="I641">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J641">
-        <v>29.2</v>
-      </c>
-      <c r="K641">
-        <v>33.2</v>
-      </c>
-      <c r="L641">
-        <v>4790</v>
-      </c>
-      <c r="M641">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="642" spans="1:13">
-      <c r="A642">
-        <v>75</v>
-      </c>
-      <c r="B642" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C642">
-        <v>57</v>
-      </c>
-      <c r="D642">
-        <v>1</v>
-      </c>
-      <c r="E642">
-        <v>1</v>
-      </c>
-      <c r="F642">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G642">
-        <v>29.55</v>
-      </c>
-      <c r="H642">
-        <v>3.4</v>
-      </c>
-      <c r="I642">
-        <v>87.5</v>
-      </c>
-      <c r="J642">
-        <v>28.95</v>
-      </c>
-      <c r="K642">
-        <v>33.15</v>
-      </c>
-      <c r="L642">
-        <v>6720</v>
-      </c>
-      <c r="M642">
-        <v>192500</v>
-      </c>
-    </row>
-    <row r="643" spans="1:13">
-      <c r="A643">
-        <v>75</v>
-      </c>
-      <c r="B643" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C643">
-        <v>57</v>
-      </c>
-      <c r="D643">
-        <v>1</v>
-      </c>
-      <c r="E643">
-        <v>1</v>
-      </c>
-      <c r="F643">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G643">
-        <v>25.6</v>
-      </c>
-      <c r="H643">
-        <v>3</v>
-      </c>
-      <c r="I643">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="J643">
-        <v>29.2</v>
-      </c>
-      <c r="K643">
-        <v>34</v>
-      </c>
-      <c r="L643">
-        <v>7830</v>
-      </c>
-      <c r="M643">
-        <v>242000</v>
-      </c>
-    </row>
-    <row r="644" spans="1:13">
-      <c r="A644">
-        <v>75</v>
-      </c>
-      <c r="B644" s="2">
-        <v>46023</v>
-      </c>
-      <c r="C644">
-        <v>57</v>
-      </c>
-      <c r="D644">
-        <v>1</v>
-      </c>
-      <c r="E644">
-        <v>1</v>
-      </c>
-      <c r="F644">
-        <v>7.35</v>
-      </c>
-      <c r="G644">
-        <v>21.65</v>
-      </c>
-      <c r="H644">
-        <v>2.5</v>
-      </c>
-      <c r="I644">
-        <v>86.5</v>
-      </c>
-      <c r="J644">
-        <v>29.4</v>
-      </c>
-      <c r="K644">
-        <v>33.95</v>
-      </c>
-      <c r="L644">
-        <v>7190</v>
-      </c>
-      <c r="M644">
         <v>223000</v>
       </c>
     </row>
